--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Atishay Ltd/Pruned_Excel/Semi_Final/Atishay Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Atishay Ltd/Pruned_Excel/Semi_Final/Atishay Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="106">
   <si>
     <t>Balance Sheet of Atishay(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,49 +62,52 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 10</t>
-  </si>
-  <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Mar 12</t>
-  </si>
-  <si>
-    <t>Mar 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of Atishay(in Rs. Cr.)</t>
@@ -200,9 +206,6 @@
     <t>Quarterly Results of Atishay(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -260,33 +263,6 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>06</t>
   </si>
   <si>
@@ -294,9 +270,6 @@
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>Q1</t>
@@ -720,13 +693,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,619 +739,667 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
         <v>0.17</v>
-      </c>
-      <c r="C2">
-        <v>6.11</v>
       </c>
       <c r="D2">
         <v>6.11</v>
       </c>
       <c r="E2">
+        <v>6.11</v>
+      </c>
+      <c r="F2">
         <v>6.28</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.07000000000000001</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>3.23</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>9.609999999999999</v>
-      </c>
-      <c r="I2">
-        <v>1.46</v>
       </c>
       <c r="J2">
         <v>1.46</v>
       </c>
       <c r="K2">
+        <v>1.46</v>
+      </c>
+      <c r="L2">
         <v>3.1</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>6.5</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>9.609999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
         <v>0.17</v>
-      </c>
-      <c r="C3">
-        <v>8.08</v>
       </c>
       <c r="D3">
         <v>8.08</v>
       </c>
       <c r="E3">
+        <v>8.08</v>
+      </c>
+      <c r="F3">
         <v>8.25</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.03</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2.05</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>10.72</v>
-      </c>
-      <c r="I3">
-        <v>1.5</v>
       </c>
       <c r="J3">
         <v>1.5</v>
       </c>
       <c r="K3">
+        <v>1.5</v>
+      </c>
+      <c r="L3">
         <v>6.99</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>3.73</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>10.72</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
         <v>0.17</v>
-      </c>
-      <c r="C4">
-        <v>10.29</v>
       </c>
       <c r="D4">
         <v>10.29</v>
       </c>
       <c r="E4">
+        <v>10.29</v>
+      </c>
+      <c r="F4">
         <v>10.45</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.35</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4.06</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>16.21</v>
-      </c>
-      <c r="I4">
-        <v>5.25</v>
       </c>
       <c r="J4">
         <v>5.25</v>
       </c>
       <c r="K4">
+        <v>5.25</v>
+      </c>
+      <c r="L4">
         <v>11.63</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>4.57</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>16.21</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
         <v>4.85</v>
-      </c>
-      <c r="C5">
-        <v>6.74</v>
       </c>
       <c r="D5">
         <v>6.74</v>
       </c>
       <c r="E5">
+        <v>6.74</v>
+      </c>
+      <c r="F5">
         <v>11.59</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.45</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5.07</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>19.02</v>
-      </c>
-      <c r="I5">
-        <v>5.03</v>
       </c>
       <c r="J5">
         <v>5.03</v>
       </c>
       <c r="K5">
+        <v>5.03</v>
+      </c>
+      <c r="L5">
         <v>12.32</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>6.71</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>19.02</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
         <v>6.47</v>
-      </c>
-      <c r="C6">
-        <v>7.47</v>
       </c>
       <c r="D6">
         <v>7.47</v>
       </c>
       <c r="E6">
+        <v>7.47</v>
+      </c>
+      <c r="F6">
         <v>13.94</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.51</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4.41</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>20.22</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3.05</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>7.39</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>14.87</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>5.35</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>20.22</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
         <v>8.789999999999999</v>
-      </c>
-      <c r="C7">
-        <v>11.62</v>
       </c>
       <c r="D7">
         <v>11.62</v>
       </c>
       <c r="E7">
+        <v>11.62</v>
+      </c>
+      <c r="F7">
         <v>20.41</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.53</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3.9</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>25.06</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2.54</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>8.210000000000001</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>14.49</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>10.58</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>25.06</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
         <v>8.789999999999999</v>
-      </c>
-      <c r="C8">
-        <v>14.26</v>
       </c>
       <c r="D8">
         <v>14.26</v>
       </c>
       <c r="E8">
+        <v>14.26</v>
+      </c>
+      <c r="F8">
         <v>23.04</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.8100000000000001</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>3.86</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>31.33</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>4.89</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>19.01</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>24.21</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>7.12</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>31.33</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
         <v>10.98</v>
-      </c>
-      <c r="C9">
-        <v>15.17</v>
       </c>
       <c r="D9">
         <v>15.17</v>
       </c>
       <c r="E9">
+        <v>15.17</v>
+      </c>
+      <c r="F9">
         <v>26.15</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1.37</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2.29</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>32.08</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>20.14</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>24.39</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>26.05</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>6.03</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>32.08</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
         <v>10.98</v>
-      </c>
-      <c r="C10">
-        <v>18.2</v>
       </c>
       <c r="D10">
         <v>18.2</v>
       </c>
       <c r="E10">
+        <v>18.2</v>
+      </c>
+      <c r="F10">
         <v>29.18</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1.67</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>3.22</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>35.21</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>19.81</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>24.96</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>26.13</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>9.08</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>35.21</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
         <v>10.98</v>
-      </c>
-      <c r="C11">
-        <v>21.64</v>
       </c>
       <c r="D11">
         <v>21.64</v>
       </c>
       <c r="E11">
+        <v>21.64</v>
+      </c>
+      <c r="F11">
         <v>32.62</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1.73</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>5.86</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>40.57</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>5.49</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>25.54</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>26.36</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>14.21</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>40.57</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
         <v>10.98</v>
-      </c>
-      <c r="C12">
-        <v>23.22</v>
       </c>
       <c r="D12">
         <v>23.22</v>
       </c>
       <c r="E12">
+        <v>23.22</v>
+      </c>
+      <c r="F12">
         <v>34.2</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2.34</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>7.32</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>42.59</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>3.61</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>25.65</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>27.74</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>14.85</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>42.59</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
         <v>10.98</v>
-      </c>
-      <c r="C13">
-        <v>25.76</v>
       </c>
       <c r="D13">
         <v>25.76</v>
       </c>
       <c r="E13">
+        <v>25.76</v>
+      </c>
+      <c r="F13">
         <v>36.74</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>2.69</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3.38</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>40.22</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>3.05</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>25.01</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>25.66</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>14.56</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>40.22</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
         <v>10.98</v>
-      </c>
-      <c r="C14">
-        <v>25.05</v>
       </c>
       <c r="D14">
         <v>25.05</v>
       </c>
       <c r="E14">
+        <v>25.05</v>
+      </c>
+      <c r="F14">
         <v>36.03</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1.53</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>6.33</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>42.85</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3.24</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>25.37</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>26.07</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>16.78</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>42.85</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
         <v>10.98</v>
-      </c>
-      <c r="C15">
-        <v>25.71</v>
       </c>
       <c r="D15">
         <v>25.71</v>
       </c>
       <c r="E15">
+        <v>25.71</v>
+      </c>
+      <c r="F15">
         <v>36.69</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.7</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>4.4</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>41.31</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2.46</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>23.92</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>25.87</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>15.44</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>41.31</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
         <v>10.98</v>
-      </c>
-      <c r="C16">
-        <v>31.33</v>
       </c>
       <c r="D16">
         <v>31.33</v>
       </c>
       <c r="E16">
+        <v>31.33</v>
+      </c>
+      <c r="F16">
         <v>42.37</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2.15</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>5.07</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>48.25</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3.59</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>24.32</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>34.37</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>13.88</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>48.25</v>
       </c>
     </row>
@@ -1389,473 +1410,521 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>3.13</v>
+      </c>
+      <c r="D2">
+        <v>2.51</v>
+      </c>
+      <c r="E2">
+        <v>-3.21</v>
+      </c>
+      <c r="F2">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>-0.77</v>
+      </c>
+      <c r="I2">
+        <v>4.17</v>
+      </c>
+      <c r="J2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>2.98</v>
+      </c>
+      <c r="D3">
+        <v>1.14</v>
+      </c>
+      <c r="E3">
+        <v>-1.2</v>
+      </c>
+      <c r="F3">
+        <v>-0.08</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>-0.14</v>
+      </c>
+      <c r="I3">
+        <v>3.4</v>
+      </c>
+      <c r="J3">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>3.3</v>
+      </c>
+      <c r="D4">
+        <v>3.74</v>
+      </c>
+      <c r="E4">
+        <v>-4.19</v>
+      </c>
+      <c r="F4">
+        <v>0.59</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.14</v>
+      </c>
+      <c r="I4">
+        <v>3.27</v>
+      </c>
+      <c r="J4">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>2.24</v>
+      </c>
+      <c r="D5">
+        <v>0.87</v>
+      </c>
+      <c r="E5">
+        <v>-1.68</v>
+      </c>
+      <c r="F5">
+        <v>0.1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>-0.71</v>
+      </c>
+      <c r="I5">
+        <v>3.4</v>
+      </c>
+      <c r="J5">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>3.4</v>
+      </c>
+      <c r="D6">
+        <v>1.56</v>
+      </c>
+      <c r="E6">
+        <v>-2.25</v>
+      </c>
+      <c r="F6">
+        <v>-1.12</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>-1.82</v>
+      </c>
+      <c r="I6">
+        <v>2.69</v>
+      </c>
+      <c r="J6">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>0.58</v>
+      </c>
+      <c r="D7">
+        <v>3.95</v>
+      </c>
+      <c r="E7">
+        <v>0.63</v>
+      </c>
+      <c r="F7">
+        <v>2.46</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>7.04</v>
+      </c>
+      <c r="I7">
+        <v>0.87</v>
+      </c>
+      <c r="J7">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>2.63</v>
+      </c>
+      <c r="D8">
+        <v>1.52</v>
+      </c>
+      <c r="E8">
+        <v>-9.56</v>
+      </c>
+      <c r="F8">
+        <v>3.39</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>-4.65</v>
+      </c>
+      <c r="I8">
+        <v>7.91</v>
+      </c>
+      <c r="J8">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>4.67</v>
+      </c>
+      <c r="D9">
+        <v>2.59</v>
+      </c>
+      <c r="E9">
+        <v>-1.6</v>
+      </c>
+      <c r="F9">
+        <v>-0.93</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I9">
+        <v>1.92</v>
+      </c>
+      <c r="J9">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>4.07</v>
+      </c>
+      <c r="D10">
+        <v>0.93</v>
+      </c>
+      <c r="E10">
+        <v>-0.12</v>
+      </c>
+      <c r="F10">
+        <v>-1.05</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>-0.24</v>
+      </c>
+      <c r="I10">
+        <v>1.98</v>
+      </c>
+      <c r="J10">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>5.8</v>
+      </c>
+      <c r="D11">
+        <v>1.32</v>
+      </c>
+      <c r="E11">
+        <v>-0.66</v>
+      </c>
+      <c r="F11">
+        <v>-2.31</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>-1.65</v>
+      </c>
+      <c r="I11">
+        <v>1.74</v>
+      </c>
+      <c r="J11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>2.55</v>
+      </c>
+      <c r="D12">
+        <v>0.42</v>
+      </c>
+      <c r="E12">
+        <v>-0.25</v>
+      </c>
+      <c r="F12">
+        <v>-1.53</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>-1.35</v>
+      </c>
+      <c r="I12">
+        <v>0.1</v>
+      </c>
+      <c r="J12">
+        <v>-1.26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>3.52</v>
+      </c>
+      <c r="D13">
+        <v>7.88</v>
+      </c>
+      <c r="E13">
+        <v>-2.44</v>
+      </c>
+      <c r="F13">
+        <v>-2.08</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>3.36</v>
+      </c>
+      <c r="I13">
+        <v>-1.26</v>
+      </c>
+      <c r="J13">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>0.29</v>
+      </c>
+      <c r="D14">
+        <v>0.39</v>
+      </c>
+      <c r="E14">
+        <v>1.09</v>
+      </c>
+      <c r="F14">
+        <v>-1.66</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>-0.18</v>
+      </c>
+      <c r="I14">
+        <v>2.1</v>
+      </c>
+      <c r="J14">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>1.01</v>
+      </c>
+      <c r="D15">
+        <v>-1.51</v>
+      </c>
+      <c r="E15">
+        <v>0.6</v>
+      </c>
+      <c r="F15">
+        <v>-0.82</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>-1.73</v>
+      </c>
+      <c r="I15">
+        <v>1.92</v>
+      </c>
+      <c r="J15">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>3.13</v>
-      </c>
-      <c r="C2">
-        <v>2.51</v>
-      </c>
-      <c r="D2">
-        <v>-3.21</v>
-      </c>
-      <c r="E2">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>-0.77</v>
-      </c>
-      <c r="H2">
-        <v>4.17</v>
-      </c>
-      <c r="I2">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>2.98</v>
-      </c>
-      <c r="C3">
-        <v>1.14</v>
-      </c>
-      <c r="D3">
-        <v>-1.2</v>
-      </c>
-      <c r="E3">
-        <v>-0.08</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>-0.14</v>
-      </c>
-      <c r="H3">
-        <v>3.4</v>
-      </c>
-      <c r="I3">
-        <v>3.27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>3.3</v>
-      </c>
-      <c r="C4">
-        <v>3.74</v>
-      </c>
-      <c r="D4">
-        <v>-4.19</v>
-      </c>
-      <c r="E4">
-        <v>0.59</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0.14</v>
-      </c>
-      <c r="H4">
-        <v>3.27</v>
-      </c>
-      <c r="I4">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>2.24</v>
-      </c>
-      <c r="C5">
-        <v>0.87</v>
-      </c>
-      <c r="D5">
-        <v>-1.68</v>
-      </c>
-      <c r="E5">
-        <v>0.1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>-0.71</v>
-      </c>
-      <c r="H5">
-        <v>3.4</v>
-      </c>
-      <c r="I5">
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>3.4</v>
-      </c>
-      <c r="C6">
-        <v>1.56</v>
-      </c>
-      <c r="D6">
-        <v>-2.25</v>
-      </c>
-      <c r="E6">
-        <v>-1.12</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>-1.82</v>
-      </c>
-      <c r="H6">
-        <v>2.69</v>
-      </c>
-      <c r="I6">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>0.58</v>
-      </c>
-      <c r="C7">
-        <v>3.95</v>
-      </c>
-      <c r="D7">
-        <v>0.63</v>
-      </c>
-      <c r="E7">
-        <v>2.46</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>7.04</v>
-      </c>
-      <c r="H7">
-        <v>0.87</v>
-      </c>
-      <c r="I7">
-        <v>7.91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>2.63</v>
-      </c>
-      <c r="C8">
-        <v>1.52</v>
-      </c>
-      <c r="D8">
-        <v>-9.56</v>
-      </c>
-      <c r="E8">
-        <v>3.39</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>-4.65</v>
-      </c>
-      <c r="H8">
-        <v>7.91</v>
-      </c>
-      <c r="I8">
-        <v>3.26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>4.67</v>
-      </c>
-      <c r="C9">
-        <v>2.59</v>
-      </c>
-      <c r="D9">
-        <v>-1.6</v>
-      </c>
-      <c r="E9">
-        <v>-0.93</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="H9">
-        <v>1.92</v>
-      </c>
-      <c r="I9">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>4.07</v>
-      </c>
-      <c r="C10">
-        <v>0.93</v>
-      </c>
-      <c r="D10">
-        <v>-0.12</v>
-      </c>
-      <c r="E10">
-        <v>-1.05</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>-0.24</v>
-      </c>
-      <c r="H10">
-        <v>1.98</v>
-      </c>
-      <c r="I10">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>5.8</v>
-      </c>
-      <c r="C11">
-        <v>1.32</v>
-      </c>
-      <c r="D11">
-        <v>-0.66</v>
-      </c>
-      <c r="E11">
-        <v>-2.31</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>-1.65</v>
-      </c>
-      <c r="H11">
-        <v>1.74</v>
-      </c>
-      <c r="I11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>2.55</v>
-      </c>
-      <c r="C12">
-        <v>0.42</v>
-      </c>
-      <c r="D12">
-        <v>-0.25</v>
-      </c>
-      <c r="E12">
-        <v>-1.53</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>-1.35</v>
-      </c>
-      <c r="H12">
-        <v>0.1</v>
-      </c>
-      <c r="I12">
-        <v>-1.26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>3.52</v>
-      </c>
-      <c r="C13">
-        <v>7.88</v>
-      </c>
-      <c r="D13">
-        <v>-2.44</v>
-      </c>
-      <c r="E13">
-        <v>-2.08</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>3.36</v>
-      </c>
-      <c r="H13">
-        <v>-1.26</v>
-      </c>
-      <c r="I13">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>0.29</v>
-      </c>
-      <c r="C14">
-        <v>0.39</v>
-      </c>
-      <c r="D14">
-        <v>1.09</v>
-      </c>
-      <c r="E14">
-        <v>-1.66</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>-0.18</v>
-      </c>
-      <c r="H14">
-        <v>2.1</v>
-      </c>
-      <c r="I14">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>1.01</v>
-      </c>
-      <c r="C15">
-        <v>-1.51</v>
-      </c>
-      <c r="D15">
-        <v>0.6</v>
-      </c>
-      <c r="E15">
-        <v>-0.82</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>-1.73</v>
-      </c>
-      <c r="H15">
-        <v>1.92</v>
-      </c>
-      <c r="I15">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>7.62</v>
+      <c r="B16" t="s">
+        <v>29</v>
       </c>
       <c r="C16">
         <v>7.62</v>
       </c>
       <c r="D16">
+        <v>7.62</v>
+      </c>
+      <c r="E16">
         <v>-6.31</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-0.66</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>0.65</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.18</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.83</v>
       </c>
     </row>
@@ -1866,86 +1935,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>59</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>19.27</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
       </c>
       <c r="C2">
         <v>19.27</v>
@@ -1954,66 +2026,69 @@
         <v>19.27</v>
       </c>
       <c r="E2">
+        <v>19.27</v>
+      </c>
+      <c r="F2">
         <v>0.33</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>19.6</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10.14</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4.9</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.06</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.41</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.6</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>16.1</v>
-      </c>
-      <c r="M2">
-        <v>3.49</v>
       </c>
       <c r="N2">
         <v>3.49</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>1.29</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>2.21</v>
-      </c>
-      <c r="S2">
-        <v>1.85</v>
       </c>
       <c r="T2">
         <v>1.85</v>
       </c>
       <c r="U2">
-        <v>1104.61</v>
+        <v>1.85</v>
       </c>
       <c r="V2">
         <v>1104.61</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>1104.61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>15.28</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
       </c>
       <c r="C3">
         <v>15.28</v>
@@ -2022,46 +2097,46 @@
         <v>15.28</v>
       </c>
       <c r="E3">
+        <v>15.28</v>
+      </c>
+      <c r="F3">
         <v>0.43</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>15.71</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>7.94</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3.68</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.09</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.35</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.67</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>12.74</v>
-      </c>
-      <c r="M3">
-        <v>2.98</v>
       </c>
       <c r="N3">
         <v>2.98</v>
       </c>
       <c r="O3">
+        <v>2.98</v>
+      </c>
+      <c r="P3">
         <v>1</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>1.01</v>
-      </c>
-      <c r="R3">
-        <v>1.96</v>
       </c>
       <c r="S3">
         <v>1.96</v>
@@ -2070,18 +2145,21 @@
         <v>1.96</v>
       </c>
       <c r="U3">
-        <v>1174.72</v>
+        <v>1.96</v>
       </c>
       <c r="V3">
         <v>1174.72</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>1174.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>11.4</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
       </c>
       <c r="C4">
         <v>11.4</v>
@@ -2090,46 +2168,46 @@
         <v>11.4</v>
       </c>
       <c r="E4">
+        <v>11.4</v>
+      </c>
+      <c r="F4">
         <v>0.49</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>11.89</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4.03</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2.38</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.24</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1.01</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.92</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>8.59</v>
-      </c>
-      <c r="M4">
-        <v>3.3</v>
       </c>
       <c r="N4">
         <v>3.3</v>
       </c>
       <c r="O4">
+        <v>3.3</v>
+      </c>
+      <c r="P4">
         <v>0.8100000000000001</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.26</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1.09</v>
-      </c>
-      <c r="R4">
-        <v>2.21</v>
       </c>
       <c r="S4">
         <v>2.21</v>
@@ -2138,18 +2216,21 @@
         <v>2.21</v>
       </c>
       <c r="U4">
-        <v>1319.76</v>
+        <v>2.21</v>
       </c>
       <c r="V4">
         <v>1319.76</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>1319.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>12.18</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
       </c>
       <c r="C5">
         <v>12.18</v>
@@ -2158,46 +2239,46 @@
         <v>12.18</v>
       </c>
       <c r="E5">
+        <v>12.18</v>
+      </c>
+      <c r="F5">
         <v>0.53</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>12.71</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4.87</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2.38</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.46</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1.25</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1.51</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>10.47</v>
-      </c>
-      <c r="M5">
-        <v>2.24</v>
       </c>
       <c r="N5">
         <v>2.24</v>
       </c>
       <c r="O5">
+        <v>2.24</v>
+      </c>
+      <c r="P5">
         <v>0.71</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.02</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.76</v>
-      </c>
-      <c r="R5">
-        <v>1.48</v>
       </c>
       <c r="S5">
         <v>1.48</v>
@@ -2206,18 +2287,21 @@
         <v>1.48</v>
       </c>
       <c r="U5">
-        <v>30.48</v>
+        <v>1.48</v>
       </c>
       <c r="V5">
         <v>30.48</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>14.84</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
       </c>
       <c r="C6">
         <v>14.84</v>
@@ -2226,46 +2310,46 @@
         <v>14.84</v>
       </c>
       <c r="E6">
+        <v>14.84</v>
+      </c>
+      <c r="F6">
         <v>0.75</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>15.6</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>6.62</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3.05</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.26</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.92</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1.34</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>12.2</v>
-      </c>
-      <c r="M6">
-        <v>3.4</v>
       </c>
       <c r="N6">
         <v>3.4</v>
       </c>
       <c r="O6">
+        <v>3.4</v>
+      </c>
+      <c r="P6">
         <v>1.07</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-0.01</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1.09</v>
-      </c>
-      <c r="R6">
-        <v>2.3</v>
       </c>
       <c r="S6">
         <v>2.3</v>
@@ -2274,18 +2358,21 @@
         <v>2.3</v>
       </c>
       <c r="U6">
-        <v>3.56</v>
+        <v>2.3</v>
       </c>
       <c r="V6">
         <v>3.56</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>19.03</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
       </c>
       <c r="C7">
         <v>19.03</v>
@@ -2294,46 +2381,46 @@
         <v>19.03</v>
       </c>
       <c r="E7">
+        <v>19.03</v>
+      </c>
+      <c r="F7">
         <v>1.16</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>20.19</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>9.17</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3.06</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.18</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.99</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>2.09</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>15.49</v>
-      </c>
-      <c r="M7">
-        <v>4.69</v>
       </c>
       <c r="N7">
         <v>4.69</v>
       </c>
       <c r="O7">
+        <v>4.69</v>
+      </c>
+      <c r="P7">
         <v>1.42</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-0.15</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1.28</v>
-      </c>
-      <c r="R7">
-        <v>3.42</v>
       </c>
       <c r="S7">
         <v>3.42</v>
@@ -2342,18 +2429,21 @@
         <v>3.42</v>
       </c>
       <c r="U7">
-        <v>4.52</v>
+        <v>3.42</v>
       </c>
       <c r="V7">
         <v>4.52</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>18.6</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
       </c>
       <c r="C8">
         <v>18.6</v>
@@ -2362,46 +2452,46 @@
         <v>18.6</v>
       </c>
       <c r="E8">
+        <v>18.6</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>19.6</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>9.869999999999999</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2.2</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.15</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.64</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2.51</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>15.33</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>4.28</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>4.17</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1.2</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-0.03</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>1.17</v>
-      </c>
-      <c r="R8">
-        <v>3</v>
       </c>
       <c r="S8">
         <v>3</v>
@@ -2410,18 +2500,21 @@
         <v>3</v>
       </c>
       <c r="U8">
-        <v>3.41</v>
+        <v>3</v>
       </c>
       <c r="V8">
         <v>3.41</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>21.3</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
       </c>
       <c r="C9">
         <v>21.3</v>
@@ -2430,46 +2523,46 @@
         <v>21.3</v>
       </c>
       <c r="E9">
+        <v>21.3</v>
+      </c>
+      <c r="F9">
         <v>0.6899999999999999</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>21.99</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>10.08</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>3.64</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.49</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1.37</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1.77</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>17.32</v>
-      </c>
-      <c r="M9">
-        <v>4.67</v>
       </c>
       <c r="N9">
         <v>4.67</v>
       </c>
       <c r="O9">
+        <v>4.67</v>
+      </c>
+      <c r="P9">
         <v>1.26</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.15</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1.41</v>
-      </c>
-      <c r="R9">
-        <v>3.27</v>
       </c>
       <c r="S9">
         <v>3.27</v>
@@ -2478,18 +2571,21 @@
         <v>3.27</v>
       </c>
       <c r="U9">
-        <v>2.98</v>
+        <v>3.27</v>
       </c>
       <c r="V9">
         <v>2.98</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>22.64</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
       </c>
       <c r="C10">
         <v>22.64</v>
@@ -2498,46 +2594,46 @@
         <v>22.64</v>
       </c>
       <c r="E10">
+        <v>22.64</v>
+      </c>
+      <c r="F10">
         <v>1.26</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>23.9</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>6.33</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>4.92</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.42</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1.34</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>2.63</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>19.82</v>
-      </c>
-      <c r="M10">
-        <v>4.07</v>
       </c>
       <c r="N10">
         <v>4.07</v>
       </c>
       <c r="O10">
+        <v>4.07</v>
+      </c>
+      <c r="P10">
         <v>1</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>0.04</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1.05</v>
-      </c>
-      <c r="R10">
-        <v>3.03</v>
       </c>
       <c r="S10">
         <v>3.03</v>
@@ -2546,18 +2642,21 @@
         <v>3.03</v>
       </c>
       <c r="U10">
-        <v>2.76</v>
+        <v>3.03</v>
       </c>
       <c r="V10">
         <v>2.76</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>26.03</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
       </c>
       <c r="C11">
         <v>26.03</v>
@@ -2566,46 +2665,46 @@
         <v>26.03</v>
       </c>
       <c r="E11">
+        <v>26.03</v>
+      </c>
+      <c r="F11">
         <v>1.18</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>27.21</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>10.83</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>5.1</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.33</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1.34</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>2.96</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>21.42</v>
-      </c>
-      <c r="M11">
-        <v>5.8</v>
       </c>
       <c r="N11">
         <v>5.8</v>
       </c>
       <c r="O11">
+        <v>5.8</v>
+      </c>
+      <c r="P11">
         <v>1.42</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.17</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1.6</v>
-      </c>
-      <c r="R11">
-        <v>4.2</v>
       </c>
       <c r="S11">
         <v>4.2</v>
@@ -2614,18 +2713,21 @@
         <v>4.2</v>
       </c>
       <c r="U11">
-        <v>3.82</v>
+        <v>4.2</v>
       </c>
       <c r="V11">
         <v>3.82</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>23.05</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
       </c>
       <c r="C12">
         <v>23.05</v>
@@ -2634,46 +2736,46 @@
         <v>23.05</v>
       </c>
       <c r="E12">
+        <v>23.05</v>
+      </c>
+      <c r="F12">
         <v>1.72</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>24.77</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>12.7</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>4.53</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.37</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1.62</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>2.43</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>22.23</v>
-      </c>
-      <c r="M12">
-        <v>2.55</v>
       </c>
       <c r="N12">
         <v>2.55</v>
       </c>
       <c r="O12">
+        <v>2.55</v>
+      </c>
+      <c r="P12">
         <v>0.65</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-0.55</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>0.1</v>
-      </c>
-      <c r="R12">
-        <v>2.44</v>
       </c>
       <c r="S12">
         <v>2.44</v>
@@ -2682,18 +2784,21 @@
         <v>2.44</v>
       </c>
       <c r="U12">
-        <v>2.23</v>
+        <v>2.44</v>
       </c>
       <c r="V12">
         <v>2.23</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>26.28</v>
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
       </c>
       <c r="C13">
         <v>26.28</v>
@@ -2702,46 +2807,46 @@
         <v>26.28</v>
       </c>
       <c r="E13">
+        <v>26.28</v>
+      </c>
+      <c r="F13">
         <v>1.07</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>27.35</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>15.97</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>3.92</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.45</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1.7</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1.69</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>23.84</v>
-      </c>
-      <c r="M13">
-        <v>3.52</v>
       </c>
       <c r="N13">
         <v>3.52</v>
       </c>
       <c r="O13">
+        <v>3.52</v>
+      </c>
+      <c r="P13">
         <v>1.01</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>0.03</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>1.04</v>
-      </c>
-      <c r="R13">
-        <v>2.48</v>
       </c>
       <c r="S13">
         <v>2.48</v>
@@ -2750,18 +2855,21 @@
         <v>2.48</v>
       </c>
       <c r="U13">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="V13">
         <v>2.26</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>19.75</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
       </c>
       <c r="C14">
         <v>19.75</v>
@@ -2770,46 +2878,46 @@
         <v>19.75</v>
       </c>
       <c r="E14">
+        <v>19.75</v>
+      </c>
+      <c r="F14">
         <v>1.54</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>21.29</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>3.76</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.35</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1.49</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>2.13</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>21.01</v>
-      </c>
-      <c r="M14">
-        <v>0.29</v>
       </c>
       <c r="N14">
         <v>0.29</v>
       </c>
       <c r="O14">
+        <v>0.29</v>
+      </c>
+      <c r="P14">
         <v>0.18</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
       <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>0.17</v>
-      </c>
-      <c r="R14">
-        <v>0.11</v>
       </c>
       <c r="S14">
         <v>0.11</v>
@@ -2818,18 +2926,21 @@
         <v>0.11</v>
       </c>
       <c r="U14">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="V14">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>21.46</v>
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
       </c>
       <c r="C15">
         <v>21.46</v>
@@ -2838,46 +2949,46 @@
         <v>21.46</v>
       </c>
       <c r="E15">
+        <v>21.46</v>
+      </c>
+      <c r="F15">
         <v>1.96</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>23.42</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>13.57</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>4.83</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.34</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1.44</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2.23</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>22.41</v>
-      </c>
-      <c r="M15">
-        <v>1.01</v>
       </c>
       <c r="N15">
         <v>1.01</v>
       </c>
       <c r="O15">
+        <v>1.01</v>
+      </c>
+      <c r="P15">
         <v>0.29</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>0.07000000000000001</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>0.36</v>
-      </c>
-      <c r="R15">
-        <v>0.65</v>
       </c>
       <c r="S15">
         <v>0.65</v>
@@ -2886,18 +2997,21 @@
         <v>0.65</v>
       </c>
       <c r="U15">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
       <c r="V15">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>43.26</v>
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
       </c>
       <c r="C16">
         <v>43.26</v>
@@ -2906,46 +3020,46 @@
         <v>43.26</v>
       </c>
       <c r="E16">
+        <v>43.26</v>
+      </c>
+      <c r="F16">
         <v>1.97</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>45.22</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>24.65</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>8.42</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.32</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1.68</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>3.42</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>37.6</v>
-      </c>
-      <c r="M16">
-        <v>7.62</v>
       </c>
       <c r="N16">
         <v>7.62</v>
       </c>
       <c r="O16">
+        <v>7.62</v>
+      </c>
+      <c r="P16">
         <v>2.09</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-0.02</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>2.07</v>
-      </c>
-      <c r="R16">
-        <v>5.55</v>
       </c>
       <c r="S16">
         <v>5.55</v>
@@ -2954,9 +3068,12 @@
         <v>5.55</v>
       </c>
       <c r="U16">
+        <v>5.55</v>
+      </c>
+      <c r="V16">
         <v>5.06</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>4.99</v>
       </c>
     </row>
@@ -2975,84 +3092,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D2">
         <v>4.94</v>
@@ -3117,13 +3234,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D3">
         <v>6.44</v>
@@ -3188,13 +3305,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D4">
         <v>3.95</v>
@@ -3259,13 +3376,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>7.81</v>
@@ -3330,13 +3447,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>81</v>
       </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D6">
         <v>3.62</v>
@@ -3401,13 +3518,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D7">
         <v>5.66</v>
@@ -3472,13 +3589,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D8">
         <v>5.64</v>
@@ -3543,13 +3660,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D9">
         <v>7.73</v>
@@ -3614,13 +3731,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D10">
         <v>5.82</v>
@@ -3685,13 +3802,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>82</v>
       </c>
-      <c r="B11" t="s">
-        <v>90</v>
-      </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D11">
         <v>7.75</v>
@@ -3756,13 +3873,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D12">
         <v>5.54</v>
@@ -3827,13 +3944,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D13">
         <v>6.93</v>
@@ -3898,13 +4015,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D14">
         <v>5.12</v>
@@ -3969,13 +4086,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D15">
         <v>6.13</v>
@@ -4040,13 +4157,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
         <v>83</v>
       </c>
-      <c r="B16" t="s">
-        <v>91</v>
-      </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -4111,13 +4228,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D17">
         <v>6.79</v>
@@ -4182,13 +4299,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
         <v>84</v>
-      </c>
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" t="s">
-        <v>93</v>
       </c>
       <c r="D18">
         <v>6.39</v>
@@ -4253,13 +4370,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D19">
         <v>6.97</v>
@@ -4324,13 +4441,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D20">
         <v>6.49</v>
@@ -4395,13 +4512,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D21">
         <v>6.43</v>
@@ -4466,13 +4583,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D22">
         <v>4.01</v>
@@ -4537,13 +4654,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
         <v>85</v>
-      </c>
-      <c r="B23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" t="s">
-        <v>94</v>
       </c>
       <c r="D23">
         <v>4.58</v>
@@ -4608,13 +4725,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D24">
         <v>4.88</v>
@@ -4679,13 +4796,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D25">
         <v>6.29</v>
@@ -4750,13 +4867,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D26">
         <v>3.55</v>
@@ -4821,13 +4938,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D27">
         <v>5.1</v>
@@ -4892,13 +5009,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
         <v>86</v>
-      </c>
-      <c r="B28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" t="s">
-        <v>95</v>
       </c>
       <c r="D28">
         <v>6.01</v>
@@ -4963,13 +5080,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
         <v>87</v>
-      </c>
-      <c r="B29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" t="s">
-        <v>96</v>
       </c>
       <c r="D29">
         <v>6.8</v>
@@ -5034,13 +5151,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D30">
         <v>6.72</v>
@@ -5105,13 +5222,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D31">
         <v>7.3</v>
@@ -5176,13 +5293,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D32">
         <v>11.76</v>
@@ -5247,13 +5364,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D33">
         <v>17.47</v>
@@ -5318,13 +5435,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D34">
         <v>10.07</v>
@@ -5389,13 +5506,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D35">
         <v>13.01</v>
@@ -5460,13 +5577,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D36">
         <v>15.22</v>
@@ -5536,447 +5653,468 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
         <v>11526.56</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2367.47</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2124.85</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2090.23</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1104.61</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>20.53</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>18.43</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>18.13</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>9.58</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>29.4</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>19.22</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.28</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>100</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
         <v>9140.66</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2045.61</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1837</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1781.05</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1174.72</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>22.37</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>20.09</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>19.48</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>12.85</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>23.81</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>18.32</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.04</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>100</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
         <v>6816.93</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2723</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2118.21</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1972.35</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1319.75</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>39.94</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>31.07</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>28.93</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>19.36</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>21.11</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>13.61</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.23</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>100</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
         <v>251.24</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>81.52</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>55.72</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>46.23</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>30.48</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>32.44</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>22.17</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>18.4</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>12.13</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>12.75</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>7.76</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.2</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>19.68</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>10.66</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>80.31999999999999</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
       <c r="R5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
         <v>22.96</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>7.08</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>5.65</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5.25</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3.56</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>30.86</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>24.63</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>22.88</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>15.51</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>16.52</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>11.38</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.12</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>16.84</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>12.01</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>83.16</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
       <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
         <v>21.66</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>6.68</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>5.55</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.34</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3.89</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>30.83</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>25.61</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>24.66</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>17.94</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>16.73</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>13.62</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.06</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>15.43</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>11.95</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>84.56999999999999</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>29.31</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
         <v>21.17</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>5.77</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>5.04</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>4.74</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3.41</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>27.22</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>23.78</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>22.39</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>16.11</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>13.01</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>9.57</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.22</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
       <c r="O8">
         <v>0</v>
       </c>
@@ -5984,55 +6122,58 @@
         <v>0</v>
       </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>54.42</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>10.74</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
         <v>19.4</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>5.95</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>4.7</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>4.26</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2.98</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>30.66</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>24.21</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>21.93</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>15.33</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>12.49</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>10.18</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.14</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
       <c r="O9">
         <v>0</v>
       </c>
@@ -6040,55 +6181,58 @@
         <v>0</v>
       </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>79.59</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>12.18</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
         <v>20.62</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>5.31</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>4.09</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>3.71</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2.76</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>25.75</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>19.83</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>17.99</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>13.37</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>10.38</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>8.6</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.09</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
       <c r="O10">
         <v>0</v>
       </c>
@@ -6096,164 +6240,173 @@
         <v>0</v>
       </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>95.45</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>16.37</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
         <v>23.71</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>6.79</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>5.58</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>5.28</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>3.82</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>28.66</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>23.51</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>22.26</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>16.12</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>12.87</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>10.34</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.13</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>15.69</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>11.89</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>84.31</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>79.44</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>10.65</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
         <v>20.99</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>4.12</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>2.65</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2.32</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2.23</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>19.65</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>12.63</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>11.04</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>10.6</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>7.14</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>5.74</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.12</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>26.94</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>16.22</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>73.06</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>32.14</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>7.09</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
         <v>23.93</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>5.16</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>3.61</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>3.2</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>2.26</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>21.56</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>15.1</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>13.37</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>9.42</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>6.74</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>6.15</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
         <v>0</v>
       </c>
@@ -6264,55 +6417,58 @@
         <v>0</v>
       </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>28.52</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>5.03</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
         <v>17.99</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1.94</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.58</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.26</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.1</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>10.77</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3.23</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1.44</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.57</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.31</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.26</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.09</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
       <c r="O14">
         <v>0</v>
       </c>
@@ -6320,55 +6476,58 @@
         <v>0</v>
       </c>
       <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>41.71</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>19.59</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
         <v>19.54</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2.54</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.23</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.92</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.59</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>12.98</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>6.28</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>4.71</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>3.02</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1.77</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1.57</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.06</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
       <c r="O15">
         <v>0</v>
       </c>
@@ -6376,55 +6535,58 @@
         <v>0</v>
       </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>32.53</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>11.67</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
         <v>39.39</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>8.77</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>7.23</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>6.94</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>5.06</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>22.25</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>18.36</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>17.62</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>12.83</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>13.1</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>11.5</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.03</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
       <c r="O16">
         <v>0</v>
       </c>
@@ -6432,9 +6594,12 @@
         <v>0</v>
       </c>
       <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>77.86</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>8.09</v>
       </c>
     </row>
